--- a/dd.xlsx
+++ b/dd.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,28 +498,28 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44495.375</v>
+        <v>44472.375</v>
       </c>
       <c r="B2" t="n">
-        <v>76250000</v>
+        <v>919</v>
       </c>
       <c r="C2" t="n">
-        <v>76480000</v>
+        <v>937</v>
       </c>
       <c r="D2" t="n">
-        <v>73002000</v>
+        <v>896</v>
       </c>
       <c r="E2" t="n">
-        <v>73293000</v>
+        <v>933</v>
       </c>
       <c r="F2" t="n">
-        <v>8258.18143151</v>
+        <v>16186131.93576009</v>
       </c>
       <c r="G2" t="n">
-        <v>619824450361.118</v>
+        <v>14907575622.30336</v>
       </c>
       <c r="H2" t="n">
-        <v>1739000</v>
+        <v>20.5</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
@@ -534,230 +534,1142 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44496.375</v>
+        <v>44473.375</v>
       </c>
       <c r="B3" t="n">
-        <v>73293000</v>
+        <v>933</v>
       </c>
       <c r="C3" t="n">
-        <v>74200000</v>
+        <v>1005</v>
       </c>
       <c r="D3" t="n">
-        <v>70180000</v>
+        <v>882</v>
       </c>
       <c r="E3" t="n">
-        <v>71845000</v>
+        <v>939</v>
       </c>
       <c r="F3" t="n">
-        <v>14503.8250321</v>
+        <v>72336345.49777302</v>
       </c>
       <c r="G3" t="n">
-        <v>1053620820854.757</v>
+        <v>69057677075.79192</v>
       </c>
       <c r="H3" t="n">
-        <v>2010000</v>
+        <v>61.5</v>
       </c>
       <c r="I3" t="n">
-        <v>75032000</v>
+        <v>953.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0.9847928683796539</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.9847928683796539</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.520713162034615</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44497.375</v>
+        <v>44474.375</v>
       </c>
       <c r="B4" t="n">
-        <v>71833000</v>
+        <v>938</v>
       </c>
       <c r="C4" t="n">
-        <v>74707000</v>
+        <v>942</v>
       </c>
       <c r="D4" t="n">
-        <v>71028000</v>
+        <v>909</v>
       </c>
       <c r="E4" t="n">
-        <v>73122000</v>
+        <v>938</v>
       </c>
       <c r="F4" t="n">
-        <v>8654.62147862</v>
+        <v>29561072.39947039</v>
       </c>
       <c r="G4" t="n">
-        <v>630325919861.4268</v>
+        <v>27349490301.05817</v>
       </c>
       <c r="H4" t="n">
-        <v>1839500</v>
+        <v>16.5</v>
       </c>
       <c r="I4" t="n">
-        <v>73843000</v>
+        <v>999.5</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9902360413309318</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9902360413309318</v>
+        <v>0.9847928683796539</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9763958669068207</v>
+        <v>1.520713162034615</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44498.375</v>
+        <v>44475.375</v>
       </c>
       <c r="B5" t="n">
-        <v>73028000</v>
+        <v>937</v>
       </c>
       <c r="C5" t="n">
-        <v>75405000</v>
+        <v>959</v>
       </c>
       <c r="D5" t="n">
-        <v>72676000</v>
+        <v>880</v>
       </c>
       <c r="E5" t="n">
-        <v>74568000</v>
+        <v>942</v>
       </c>
       <c r="F5" t="n">
-        <v>7156.5495444</v>
+        <v>33991124.29438855</v>
       </c>
       <c r="G5" t="n">
-        <v>529148496573.0781</v>
+        <v>31328105387.46053</v>
       </c>
       <c r="H5" t="n">
-        <v>1364500</v>
+        <v>39.5</v>
       </c>
       <c r="I5" t="n">
-        <v>74867500</v>
+        <v>953.5</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9959995992920827</v>
+        <v>0.9879391714735186</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9862747003701863</v>
+        <v>0.9729154504600251</v>
       </c>
       <c r="L5" t="n">
-        <v>1.372529962981373</v>
+        <v>2.708454953997486</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44499.375</v>
+        <v>44476.375</v>
       </c>
       <c r="B6" t="n">
-        <v>74568000</v>
+        <v>943</v>
       </c>
       <c r="C6" t="n">
-        <v>74748000</v>
+        <v>947</v>
       </c>
       <c r="D6" t="n">
-        <v>72910000</v>
+        <v>911</v>
       </c>
       <c r="E6" t="n">
-        <v>73413000</v>
+        <v>942</v>
       </c>
       <c r="F6" t="n">
-        <v>6019.3726361</v>
+        <v>19099196.8356467</v>
       </c>
       <c r="G6" t="n">
-        <v>443974248919.1151</v>
+        <v>17752709644.04713</v>
       </c>
       <c r="H6" t="n">
-        <v>919000</v>
+        <v>18</v>
       </c>
       <c r="I6" t="n">
-        <v>75932500</v>
+        <v>982.5</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9862747003701863</v>
+        <v>0.9729154504600251</v>
       </c>
       <c r="L6" t="n">
-        <v>1.372529962981373</v>
+        <v>2.708454953997486</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44500.375</v>
+        <v>44477.375</v>
       </c>
       <c r="B7" t="n">
-        <v>73428000</v>
+        <v>941</v>
       </c>
       <c r="C7" t="n">
-        <v>74502000</v>
+        <v>996</v>
       </c>
       <c r="D7" t="n">
-        <v>71551000</v>
+        <v>937</v>
       </c>
       <c r="E7" t="n">
-        <v>72391000</v>
+        <v>996</v>
       </c>
       <c r="F7" t="n">
-        <v>7515.24771978</v>
+        <v>31115831.0463532</v>
       </c>
       <c r="G7" t="n">
-        <v>547624687479.1433</v>
+        <v>30105828116.80065</v>
       </c>
       <c r="H7" t="n">
-        <v>1475500</v>
+        <v>29.5</v>
       </c>
       <c r="I7" t="n">
-        <v>74347000</v>
+        <v>959</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9736909357472393</v>
+        <v>1.038581856100104</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9603267359072747</v>
+        <v>1.010452334367242</v>
       </c>
       <c r="L7" t="n">
-        <v>3.967326409272531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
+        <v>44478.375</v>
+      </c>
+      <c r="B8" t="n">
+        <v>995</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1030</v>
+      </c>
+      <c r="D8" t="n">
+        <v>977</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1030</v>
+      </c>
+      <c r="F8" t="n">
+        <v>29173635.94513879</v>
+      </c>
+      <c r="G8" t="n">
+        <v>29207619951.50406</v>
+      </c>
+      <c r="H8" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1024.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.005368472425573</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.015876919861649</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44479.375</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1030</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1030</v>
+      </c>
+      <c r="D9" t="n">
+        <v>952</v>
+      </c>
+      <c r="E9" t="n">
+        <v>954</v>
+      </c>
+      <c r="F9" t="n">
+        <v>19329117.56171824</v>
+      </c>
+      <c r="G9" t="n">
+        <v>19097279410.55524</v>
+      </c>
+      <c r="H9" t="n">
+        <v>39</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1056.5</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.015876919861649</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44480.375</v>
+      </c>
+      <c r="B10" t="n">
+        <v>956</v>
+      </c>
+      <c r="C10" t="n">
+        <v>998</v>
+      </c>
+      <c r="D10" t="n">
+        <v>934</v>
+      </c>
+      <c r="E10" t="n">
+        <v>940</v>
+      </c>
+      <c r="F10" t="n">
+        <v>31216908.32239901</v>
+      </c>
+      <c r="G10" t="n">
+        <v>30150903103.64487</v>
+      </c>
+      <c r="H10" t="n">
+        <v>32</v>
+      </c>
+      <c r="I10" t="n">
+        <v>995</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.9447236180904522</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.9597229192662813</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5.527638190954779</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44481.375</v>
+      </c>
+      <c r="B11" t="n">
+        <v>940</v>
+      </c>
+      <c r="C11" t="n">
+        <v>946</v>
+      </c>
+      <c r="D11" t="n">
+        <v>887</v>
+      </c>
+      <c r="E11" t="n">
+        <v>932</v>
+      </c>
+      <c r="F11" t="n">
+        <v>18462972.72913767</v>
+      </c>
+      <c r="G11" t="n">
+        <v>16769010654.27907</v>
+      </c>
+      <c r="H11" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>972</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9597229192662813</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5.527638190954779</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>44482.375</v>
+      </c>
+      <c r="B12" t="n">
+        <v>930</v>
+      </c>
+      <c r="C12" t="n">
+        <v>941</v>
+      </c>
+      <c r="D12" t="n">
+        <v>904</v>
+      </c>
+      <c r="E12" t="n">
+        <v>937</v>
+      </c>
+      <c r="F12" t="n">
+        <v>11771076.25512638</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10859867721.07294</v>
+      </c>
+      <c r="H12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>959.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9597229192662813</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5.527638190954779</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>44483.375</v>
+      </c>
+      <c r="B13" t="n">
+        <v>937</v>
+      </c>
+      <c r="C13" t="n">
+        <v>962</v>
+      </c>
+      <c r="D13" t="n">
+        <v>925</v>
+      </c>
+      <c r="E13" t="n">
+        <v>941</v>
+      </c>
+      <c r="F13" t="n">
+        <v>12026227.81743894</v>
+      </c>
+      <c r="G13" t="n">
+        <v>11349468696.33807</v>
+      </c>
+      <c r="H13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>955.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.9848246991104134</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.945158835195783</v>
+      </c>
+      <c r="L13" t="n">
+        <v>6.961284707156929</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>44484.375</v>
+      </c>
+      <c r="B14" t="n">
+        <v>941</v>
+      </c>
+      <c r="C14" t="n">
+        <v>945</v>
+      </c>
+      <c r="D14" t="n">
+        <v>901</v>
+      </c>
+      <c r="E14" t="n">
+        <v>932</v>
+      </c>
+      <c r="F14" t="n">
+        <v>16301955.46013037</v>
+      </c>
+      <c r="G14" t="n">
+        <v>15082491661.75077</v>
+      </c>
+      <c r="H14" t="n">
+        <v>22</v>
+      </c>
+      <c r="I14" t="n">
+        <v>959.5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.945158835195783</v>
+      </c>
+      <c r="L14" t="n">
+        <v>6.961284707156929</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>44485.375</v>
+      </c>
+      <c r="B15" t="n">
+        <v>930</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1060</v>
+      </c>
+      <c r="D15" t="n">
+        <v>920</v>
+      </c>
+      <c r="E15" t="n">
+        <v>998</v>
+      </c>
+      <c r="F15" t="n">
+        <v>25461049.62599528</v>
+      </c>
+      <c r="G15" t="n">
+        <v>25085735331.34015</v>
+      </c>
+      <c r="H15" t="n">
+        <v>70</v>
+      </c>
+      <c r="I15" t="n">
+        <v>952</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.048319327731092</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.9908282747115457</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.465716531242243</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>44486.375</v>
+      </c>
+      <c r="B16" t="n">
+        <v>998</v>
+      </c>
+      <c r="C16" t="n">
+        <v>999</v>
+      </c>
+      <c r="D16" t="n">
+        <v>929</v>
+      </c>
+      <c r="E16" t="n">
+        <v>945</v>
+      </c>
+      <c r="F16" t="n">
+        <v>14825896.0187138</v>
+      </c>
+      <c r="G16" t="n">
+        <v>14318958536.33146</v>
+      </c>
+      <c r="H16" t="n">
+        <v>35</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1068</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.9908282747115457</v>
+      </c>
+      <c r="L16" t="n">
+        <v>2.465716531242243</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>44487.375</v>
+      </c>
+      <c r="B17" t="n">
+        <v>946</v>
+      </c>
+      <c r="C17" t="n">
+        <v>950</v>
+      </c>
+      <c r="D17" t="n">
+        <v>911</v>
+      </c>
+      <c r="E17" t="n">
+        <v>926</v>
+      </c>
+      <c r="F17" t="n">
+        <v>11331540.51355447</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10531111888.10477</v>
+      </c>
+      <c r="H17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>981</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.9908282747115457</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.465716531242243</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>44488.375</v>
+      </c>
+      <c r="B18" t="n">
+        <v>924</v>
+      </c>
+      <c r="C18" t="n">
+        <v>955</v>
+      </c>
+      <c r="D18" t="n">
+        <v>911</v>
+      </c>
+      <c r="E18" t="n">
+        <v>947</v>
+      </c>
+      <c r="F18" t="n">
+        <v>8718387.221639941</v>
+      </c>
+      <c r="G18" t="n">
+        <v>8131689047.007107</v>
+      </c>
+      <c r="H18" t="n">
+        <v>22</v>
+      </c>
+      <c r="I18" t="n">
+        <v>943.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.003709591944886</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.9945038432981809</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.103904138936315</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>44489.375</v>
+      </c>
+      <c r="B19" t="n">
+        <v>946</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D19" t="n">
+        <v>939</v>
+      </c>
+      <c r="E19" t="n">
+        <v>986</v>
+      </c>
+      <c r="F19" t="n">
+        <v>33885463.62408112</v>
+      </c>
+      <c r="G19" t="n">
+        <v>33049137305.71857</v>
+      </c>
+      <c r="H19" t="n">
+        <v>43</v>
+      </c>
+      <c r="I19" t="n">
+        <v>968</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.018595041322314</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.012996683359511</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.2835221911066102</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>44490.375</v>
+      </c>
+      <c r="B20" t="n">
+        <v>987</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1015</v>
+      </c>
+      <c r="D20" t="n">
+        <v>960</v>
+      </c>
+      <c r="E20" t="n">
+        <v>966</v>
+      </c>
+      <c r="F20" t="n">
+        <v>24369572.90401951</v>
+      </c>
+      <c r="G20" t="n">
+        <v>24043606374.15111</v>
+      </c>
+      <c r="H20" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1030</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.012996683359511</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.2835221911066102</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>44491.375</v>
+      </c>
+      <c r="B21" t="n">
+        <v>966</v>
+      </c>
+      <c r="C21" t="n">
+        <v>991</v>
+      </c>
+      <c r="D21" t="n">
+        <v>958</v>
+      </c>
+      <c r="E21" t="n">
+        <v>968</v>
+      </c>
+      <c r="F21" t="n">
+        <v>13441973.19680626</v>
+      </c>
+      <c r="G21" t="n">
+        <v>13101367964.90568</v>
+      </c>
+      <c r="H21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>993.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.012996683359511</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.2835221911066102</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44492.375</v>
+      </c>
+      <c r="B22" t="n">
+        <v>967</v>
+      </c>
+      <c r="C22" t="n">
+        <v>979</v>
+      </c>
+      <c r="D22" t="n">
+        <v>956</v>
+      </c>
+      <c r="E22" t="n">
+        <v>969</v>
+      </c>
+      <c r="F22" t="n">
+        <v>7148695.73264276</v>
+      </c>
+      <c r="G22" t="n">
+        <v>6924734143.908553</v>
+      </c>
+      <c r="H22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>983.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.012996683359511</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.2835221911066102</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>44493.375</v>
+      </c>
+      <c r="B23" t="n">
+        <v>969</v>
+      </c>
+      <c r="C23" t="n">
+        <v>978</v>
+      </c>
+      <c r="D23" t="n">
+        <v>935</v>
+      </c>
+      <c r="E23" t="n">
+        <v>951</v>
+      </c>
+      <c r="F23" t="n">
+        <v>9776126.801978949</v>
+      </c>
+      <c r="G23" t="n">
+        <v>9372691018.337788</v>
+      </c>
+      <c r="H23" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>980.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.012996683359511</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.2835221911066102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44494.375</v>
+      </c>
+      <c r="B24" t="n">
+        <v>952</v>
+      </c>
+      <c r="C24" t="n">
+        <v>983</v>
+      </c>
+      <c r="D24" t="n">
+        <v>945</v>
+      </c>
+      <c r="E24" t="n">
+        <v>977</v>
+      </c>
+      <c r="F24" t="n">
+        <v>7266674.34425598</v>
+      </c>
+      <c r="G24" t="n">
+        <v>6993906468.501758</v>
+      </c>
+      <c r="H24" t="n">
+        <v>19</v>
+      </c>
+      <c r="I24" t="n">
+        <v>973.5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.003595274781715</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.016638684789155</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44495.375</v>
+      </c>
+      <c r="B25" t="n">
+        <v>978</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1030</v>
+      </c>
+      <c r="D25" t="n">
+        <v>974</v>
+      </c>
+      <c r="E25" t="n">
+        <v>991</v>
+      </c>
+      <c r="F25" t="n">
+        <v>21067475.17617447</v>
+      </c>
+      <c r="G25" t="n">
+        <v>21010269055.23086</v>
+      </c>
+      <c r="H25" t="n">
+        <v>28</v>
+      </c>
+      <c r="I25" t="n">
+        <v>997</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.9939819458375125</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.010520498120413</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.6018054162487509</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>44496.375</v>
+      </c>
+      <c r="B26" t="n">
+        <v>991</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1040</v>
+      </c>
+      <c r="D26" t="n">
+        <v>890</v>
+      </c>
+      <c r="E26" t="n">
+        <v>928</v>
+      </c>
+      <c r="F26" t="n">
+        <v>51433016.39369883</v>
+      </c>
+      <c r="G26" t="n">
+        <v>50187891837.82578</v>
+      </c>
+      <c r="H26" t="n">
+        <v>75</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1019</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.9106967615309126</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.9202777450988652</v>
+      </c>
+      <c r="L26" t="n">
+        <v>9.47838609055824</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44497.375</v>
+      </c>
+      <c r="B27" t="n">
+        <v>928</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1195</v>
+      </c>
+      <c r="D27" t="n">
+        <v>910</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1115</v>
+      </c>
+      <c r="F27" t="n">
+        <v>86810603.02521238</v>
+      </c>
+      <c r="G27" t="n">
+        <v>91150748359.74628</v>
+      </c>
+      <c r="H27" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1003</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.111665004985045</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.023040564092956</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44498.375</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1110</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1780</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1105</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1675</v>
+      </c>
+      <c r="F28" t="n">
+        <v>960415569.8994379</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1443855022954.5</v>
+      </c>
+      <c r="H28" t="n">
+        <v>337.5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1252.5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.337325349301397</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.368138079725111</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44499.375</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1675</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5900</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1540</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4245</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2235407642.406524</v>
+      </c>
+      <c r="G29" t="n">
+        <v>6180967083201.062</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2180</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2012.5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.109316770186335</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.885836595494705</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>44500.375</v>
+      </c>
+      <c r="B30" t="n">
+        <v>4260</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5110</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3040</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3400</v>
+      </c>
+      <c r="F30" t="n">
+        <v>796886665.983403</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3227145208557.13</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1035</v>
+      </c>
+      <c r="I30" t="n">
+        <v>6440</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.885836595494705</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>44501.375</v>
       </c>
-      <c r="B8" t="n">
-        <v>72325000</v>
-      </c>
-      <c r="C8" t="n">
-        <v>73928000</v>
-      </c>
-      <c r="D8" t="n">
-        <v>71003000</v>
-      </c>
-      <c r="E8" t="n">
-        <v>73309000</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4334.86781047</v>
-      </c>
-      <c r="G8" t="n">
-        <v>315302085370.5724</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1462500</v>
-      </c>
-      <c r="I8" t="n">
-        <v>73800500</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.9933401535219951</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.9539311072774087</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.60688927225913</v>
+      <c r="B31" t="n">
+        <v>3400</v>
+      </c>
+      <c r="C31" t="n">
+        <v>4235</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3115</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3600</v>
+      </c>
+      <c r="F31" t="n">
+        <v>453061189.7876411</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1647172059625.919</v>
+      </c>
+      <c r="H31" t="n">
+        <v>560</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4435</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.885836595494705</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>44502.375</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3600</v>
+      </c>
+      <c r="C32" t="n">
+        <v>4130</v>
+      </c>
+      <c r="D32" t="n">
+        <v>3535</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3820</v>
+      </c>
+      <c r="F32" t="n">
+        <v>163184768.6946413</v>
+      </c>
+      <c r="G32" t="n">
+        <v>631256673952.4614</v>
+      </c>
+      <c r="H32" t="n">
+        <v>297.5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4160</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.885836595494705</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
